--- a/output_path/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board/610800NotesRelatedparty.xlsx
+++ b/output_path/XBRL_financial_statements_duly_authenticated_as_per_section_134_including_Board/610800NotesRelatedparty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Categories of related parties [Axis]</t>
   </si>
@@ -22,16 +22,40 @@
     <t>Subsidiaries [Member]</t>
   </si>
   <si>
+    <t>Revenue from sale of goods related party transactions</t>
+  </si>
+  <si>
     <t>Whether there are any related party transactions during year</t>
   </si>
   <si>
     <t>Whether entity applies exemption in Ind AS 24.25</t>
   </si>
   <si>
+    <t>571.24</t>
+  </si>
+  <si>
+    <t>124.34</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>537.07</t>
+  </si>
+  <si>
+    <t>116.84</t>
+  </si>
+  <si>
+    <t>2,536.12</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1,947.35</t>
   </si>
 </sst>
 </file>
@@ -389,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,21 +435,55 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
